--- a/uploads/prediction/resultados_prediccion.xlsx
+++ b/uploads/prediction/resultados_prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>PORCENTAJE_asistencia</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MODALIDAD</t>
+          <t>PREDICCION_ESTADO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PORCENTAJE_asistencia</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CUOTAS_PENDIENTES</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICCION_ESTADO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CONFIANZA_APROBACION (%)</t>
         </is>
@@ -477,26 +462,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>30.76</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="3">
@@ -506,26 +480,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>32.3</v>
+        <v>83.69</v>
       </c>
     </row>
     <row r="4">
@@ -535,26 +498,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>20.32</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="5">
@@ -564,26 +516,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>13.53</v>
+        <v>35.53</v>
       </c>
     </row>
     <row r="6">
@@ -593,26 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>21.03</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="7">
@@ -622,26 +552,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>23.72</v>
+        <v>66.76000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -651,26 +570,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>22.45</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="9">
@@ -680,26 +588,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>21.04</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="10">
@@ -709,26 +606,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>24.49</v>
+        <v>69.34999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -738,26 +624,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>19.57</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="12">
@@ -767,26 +642,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>23.45</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -796,26 +660,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>19.73</v>
+        <v>54.04</v>
       </c>
     </row>
     <row r="14">
@@ -825,26 +678,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>22.86</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -854,26 +696,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>21.45</v>
+        <v>60.67</v>
       </c>
     </row>
     <row r="16">
@@ -883,26 +714,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>21.32</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +732,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>13.59</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="18">
@@ -941,26 +750,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>19.45</v>
+        <v>54.33</v>
       </c>
     </row>
     <row r="19">
@@ -970,26 +768,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>19.69</v>
+        <v>55.51</v>
       </c>
     </row>
     <row r="20">
@@ -999,26 +786,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>22.26</v>
+        <v>61.72</v>
       </c>
     </row>
     <row r="21">
@@ -1028,26 +804,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>27.7</v>
+        <v>76.23999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1057,26 +822,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>22.86</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1086,26 +840,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>29.69</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="24">
@@ -1115,26 +858,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>28.46</v>
+        <v>77.25</v>
       </c>
     </row>
     <row r="25">
@@ -1144,26 +876,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>28.1</v>
+        <v>76.78</v>
       </c>
     </row>
     <row r="26">
@@ -1173,26 +894,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ORDINARIA</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>17.73</v>
+        <v>48.62</v>
       </c>
     </row>
     <row r="27">
@@ -1202,26 +912,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EXTRAORDINARIA</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Desaprobado</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>15.3</v>
+        <v>39.89</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/prediction/resultados_prediccion.xlsx
+++ b/uploads/prediction/resultados_prediccion.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81.42</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>83.69</v>
+        <v>83.25</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56.92</v>
+        <v>45.68</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35.53</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60.54</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66.76000000000001</v>
+        <v>58.38</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63.61</v>
+        <v>54.03</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59.1</v>
+        <v>50.26</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69.34999999999999</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="11">
@@ -628,11 +628,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54.76</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>65.98999999999999</v>
+        <v>57.17</v>
       </c>
     </row>
     <row r="13">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54.04</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64.09999999999999</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60.67</v>
+        <v>50.87</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60.26</v>
+        <v>50.29</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33.33</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="18">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54.33</v>
+        <v>45.22</v>
       </c>
     </row>
     <row r="19">
@@ -772,11 +772,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55.51</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61.72</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76.23999999999999</v>
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>64.09999999999999</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79.31</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77.25</v>
+        <v>72.54000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76.78</v>
+        <v>70.83</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48.62</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39.89</v>
+        <v>29.47</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/prediction/resultados_prediccion.xlsx
+++ b/uploads/prediction/resultados_prediccion.xlsx
@@ -458,83 +458,83 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GUTIERREZ ZUZUNAGA, JUAN ALBERTO</t>
+          <t>ORTIZ MORALES, DIEGO DONATTO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80.86</v>
+        <v>49.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CARLOS HUAMAN, CONSTANTINO</t>
+          <t>GAGO ARTEAGA, ELISABETH YESENIA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>83.25</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GALINDO PALOMINO, LUZ GABRIELA</t>
+          <t>ZEVALLOS CALLA, ERICK SANTIAGO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45.68</v>
+        <v>64.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VARGAS SALAZAR, DANNY JEANFRANCO</t>
+          <t>CASTRO BACA, STEPHANNY PATRICIA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26.73</v>
+        <v>67.84999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INCHI JIMENEZ, MERCEDES ARANZA</t>
+          <t>GONZALES DE LA BARRA, SORA MILCA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -542,17 +542,17 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51.8</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MARTINEZ QUINO, JACKELINE SUSAN</t>
+          <t>LINARES RAFAEL, MARLITA LIZETH</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -560,17 +560,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>58.38</v>
+        <v>60.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BAÑEZ PIZANGO, ESTEFANNY NAOMI</t>
+          <t>GUTIERREZ ZUZUNAGA, JUAN ALBERTO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54.03</v>
+        <v>60.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZEVALLOS CALLA, ERICK SANTIAGO</t>
+          <t>CARLOS HUAMAN, CONSTANTINO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50.26</v>
+        <v>67.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MORENO HIDALGO, MANUEL ALEJANDRO</t>
+          <t>GALINDO PALOMINO, LUZ GABRIELA</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>62.45</v>
+        <v>51.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MUÑOZ MARTINEZ, ENZO MAURICIO</t>
+          <t>VARGAS SALAZAR, DANNY JEANFRANCO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45.71</v>
+        <v>34.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHUQUILLANQUI FABIAN, JORDY STIV</t>
+          <t>BAÑEZ PIZANGO, ESTEFANNY NAOMI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57.17</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORTIZ MORALES, DIEGO DONATTO</t>
+          <t>MORENO HIDALGO, MANUEL ALEJANDRO</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -664,17 +664,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42.94</v>
+        <v>63.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CASTRO BACA, STEPHANNY PATRICIA</t>
+          <t>REYES CADILLO, ALEJANDRO SANTIAGO</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -682,21 +682,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55.86</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GONZALES DE LA BARRA, SORA MILCA</t>
+          <t>SANDOVAL YMAN, MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -704,17 +704,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50.87</v>
+        <v>51.91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>REYES CADILLO, ALEJANDRO SANTIAGO</t>
+          <t>CAMPOS JURUPE, LUIS ALEXANDER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -722,79 +722,79 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50.29</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GAGO ARTEAGA, ELISABETH YESENIA</t>
+          <t>TRAVEZAÑO MENDEZ, EDWIN MANUEL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.84</v>
+        <v>72.04000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LINARES RAFAEL, MARLITA LIZETH</t>
+          <t>COLQUEHUANCA VALDEZ, LIZA JHOSELYN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45.22</v>
+        <v>70.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RAQUI URCO, FIORELA SOLEDAD</t>
+          <t>VARGAS VILLARAN, DANIEL FRANCISCO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45.16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SANDOVAL YMAN, MIGUEL ANGEL</t>
+          <t>MUÑOZ MARTINEZ, ENZO MAURICIO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51.89</v>
+        <v>34.27</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72.09999999999999</v>
+        <v>64.23999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -830,17 +830,17 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55.86</v>
+        <v>69.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CAMPOS JURUPE, LUIS ALEXANDER</t>
+          <t>CUEVA CHAQUILA, FRANK DENIS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -848,17 +848,17 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73.56</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TRAVEZAÑO MENDEZ, EDWIN MANUEL</t>
+          <t>INCHI JIMENEZ, MERCEDES ARANZA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72.54000000000001</v>
+        <v>64.79000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COLQUEHUANCA VALDEZ, LIZA JHOSELYN</t>
+          <t>MARTINEZ QUINO, JACKELINE SUSAN</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70.83</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VARGAS VILLARAN, DANIEL FRANCISCO</t>
+          <t>CHUQUILLANQUI FABIAN, JORDY STIV</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39.39</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CUEVA CHAQUILA, FRANK DENIS</t>
+          <t>RAQUI URCO, FIORELA SOLEDAD</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>29.47</v>
+        <v>30.37</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/prediction/resultados_prediccion.xlsx
+++ b/uploads/prediction/resultados_prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORTIZ MORALES, DIEGO DONATTO</t>
+          <t>Alache  Llantoy  Cielo Antuanet</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -470,17 +470,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49.72</v>
+        <v>44.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GAGO ARTEAGA, ELISABETH YESENIA</t>
+          <t>Bernal  Garcia  Ximena Alejandra</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3684210526315789</v>
+        <v>50</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -488,17 +488,17 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43.76</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZEVALLOS CALLA, ERICK SANTIAGO</t>
+          <t>Pantoja  Huaroc  Anthony Lanzier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5789473684210527</v>
+        <v>50</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -506,17 +506,17 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64.11</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CASTRO BACA, STEPHANNY PATRICIA</t>
+          <t>Silvera  Orihuela  Sorel</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -524,89 +524,89 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67.84999999999999</v>
+        <v>51.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GONZALES DE LA BARRA, SORA MILCA</t>
+          <t>Caya  Macedo  Hirley Jasmin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>54.02</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LINARES RAFAEL, MARLITA LIZETH</t>
+          <t>Chero  Meza  Angie Abigail</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5263157894736842</v>
+        <v>50</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60.12</v>
+        <v>47.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUTIERREZ ZUZUNAGA, JUAN ALBERTO</t>
+          <t>Guinea  Otañe  Aaron Alessandro</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7368421052631579</v>
+        <v>50</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60.07</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARLOS HUAMAN, CONSTANTINO</t>
+          <t>Rojas  Chavez  Milagros Jannet</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7368421052631579</v>
+        <v>50</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67.59</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GALINDO PALOMINO, LUZ GABRIELA</t>
+          <t>Morales  Rueda  Andrea Carolina</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -614,17 +614,17 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51.13</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VARGAS SALAZAR, DANNY JEANFRANCO</t>
+          <t>Alvarez  Minaya  Richard Joshua Eduardo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3684210526315789</v>
+        <v>50</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -632,17 +632,17 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34.06</v>
+        <v>46.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAÑEZ PIZANGO, ESTEFANNY NAOMI</t>
+          <t>Verde  Cachicatari  Angie Alessandra</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -650,35 +650,35 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43.26</v>
+        <v>45.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MORENO HIDALGO, MANUEL ALEJANDRO</t>
+          <t>Gil  Peñaherrera  Violeta Del Rosario</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>63.07</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>REYES CADILLO, ALEJANDRO SANTIAGO</t>
+          <t>Huanca  Matos  Gisela</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32.2</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SANDOVAL YMAN, MIGUEL ANGEL</t>
+          <t>Trigozo  Arroyo  Martha Loicit</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6842105263157895</v>
+        <v>50</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -704,17 +704,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51.91</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMPOS JURUPE, LUIS ALEXANDER</t>
+          <t>Falconi  Espinoza  Alexander Michael</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7368421052631579</v>
+        <v>50</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -722,17 +722,17 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72.41</v>
+        <v>51.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TRAVEZAÑO MENDEZ, EDWIN MANUEL</t>
+          <t>Acosta  Izaguirre  Masiel Estrella</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7368421052631579</v>
+        <v>50</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -740,17 +740,17 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72.04000000000001</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>COLQUEHUANCA VALDEZ, LIZA JHOSELYN</t>
+          <t>Pineda  Pineda  Luiggi Sergio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6842105263157895</v>
+        <v>50</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -758,17 +758,17 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>70.3</v>
+        <v>62.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VARGAS VILLARAN, DANIEL FRANCISCO</t>
+          <t>Yupanqui  Marquez  Yanira Yuliana</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4736842105263158</v>
+        <v>50</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -776,151 +776,3715 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MUÑOZ MARTINEZ, ENZO MAURICIO</t>
+          <t>Arce  Jaramillo  Noemi  Ruth</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5263157894736842</v>
+        <v>50</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34.27</v>
+        <v>56.14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NAVARRO ARMAS, ERIK VICTOR</t>
+          <t>Rojas  Delgado  Lucero Brighit</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6842105263157895</v>
+        <v>50</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64.23999999999999</v>
+        <v>33.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CARRASCO LEON, GENARO JHAIR</t>
+          <t>Gago  Arteaga  Elisabeth Yesenia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.631578947368421</v>
+        <v>50</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69.38</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CUEVA CHAQUILA, FRANK DENIS</t>
+          <t>Mendoza  Carpio  Astrid Brisset</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4736842105263158</v>
+        <v>50</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>56.08</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INCHI JIMENEZ, MERCEDES ARANZA</t>
+          <t>Rengifo  Ccaicuri  Pedro Anderson</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5263157894736842</v>
+        <v>50</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64.79000000000001</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MARTINEZ QUINO, JACKELINE SUSAN</t>
+          <t>Samanamud  Patricio  Daniel Arturo</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6842105263157895</v>
+        <v>50</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desaprobado</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51.03</v>
+        <v>46.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHUQUILLANQUI FABIAN, JORDY STIV</t>
+          <t>Rosales  Vivas  Jean Pool</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6842105263157895</v>
+        <v>50</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48.27</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RAQUI URCO, FIORELA SOLEDAD</t>
+          <t>Villavicencio  Del Aguila  Jose Alonso</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5789473684210527</v>
+        <v>50</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Desaprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30.37</v>
+        <v>52.06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hurtado  Gomez  Jeancarlos Juniors</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>53.13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Castro  Cisneros  Enrique Josue</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Calle  Castillo  Eralio</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gonzales  Meza  Oscar Francisco</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>50</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Yanayaco  Carhuapoma  Maraly Massiel</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Astete  Ricra  Josselyn Jazmin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Peña  Cabrera  Melane Abigail</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>50</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Periche  Santos  Janice Stephany</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>50</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Linares  Palomino  Farid Sebastian</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cabanillas  Vera  Maria Esther</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>64.44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Campos  Barrantes  Gerson Jair</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Urvisagastegui  Briceño  Stephany Margarita</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>100</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>50.18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Reyes  Manrique  Naomi Natividad</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>100</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Yurivilca  Chagua  Viquer Pool</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>49.77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Paz  Pardo  Grabiela Estefani</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>100</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Cavero  Mendoza  Ariana Elba</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>100</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Moncada  Silva  Sebastian Nicolas</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gonzalez  Santillan  Alberto Mijail</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Carrero  Carranza  Ana Cristina</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Goicochea  Bardales  Francis David</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>100</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Castillo  Herrera  Ela Berenisse</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>100</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estrada  Javier  Danycsa Yesil</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>100</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Bermudez  Alosilla  Sabrina Nicole</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>75</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>71.04000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Miuccio  Oliveira  Niza Maria</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>75</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Espiritu  Lustre  Anahi Asumi</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>75</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tucto  Quispe  Alexandra</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>75</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lagos  Ore  Ariana Merily</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>75</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Calero  Tomas  Elmer Virginio</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>75</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>22.41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Leandro  Melgarejo  Steven Jesus</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Simabuco  Cabrera  Mateo Josue</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>75</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Pacsi  Delgado  Silvana Alejandra</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>75</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Manjier  Livia  Mariana Angela</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>75</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>43.49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Castillo  Carhuatocto  Diego Fernando</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>75</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ccoicca  Ccapacca  Lizbeth</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>75</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>43.49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Yactayo  Reyes  Fernando Daniel</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ruiz  Briceño  Nallely Tamara</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>75</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Medina  Vento  Yadhira Milagros</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hinsbi  Rojas  Kennia Alexandra</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rios  Lopez  Analy Viviana</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Falcon  Zevallos  Jhina Maria</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bances  Espinoza  Jennyfer Dajana</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cajachagua  Alanya  Samy Mariesther</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Camacho  Díaz  Gabriela Fernanda</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Valdiviezo  De La Cruz  Angel</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Urquiaga  Ramirez  Walter John</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Manrique  Acosta  Gracy Nicoll</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Reyes  Quiñones  Andrea Victoria</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>50</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Cruz  Garay  Rosa Angelica</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>50</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>39.64</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Montesinos  Morales  Viviana Orfelia</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>50</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>32.13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Gutierrez  Rojas  Anahi</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>50</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Llamoctanta  Alendez  Sany Song</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>50</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hernandez  Palomino  Rosalia Yvon</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>50</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>54.22</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hildebrandt  Di Flaviano  Valeria</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>50</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>De La Cruz  Tenorio  Isaac Jhoel</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Saavedra  Vela  Justin Osmar</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>50</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Trelles  Alva  Leonel Fabricio</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>50</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Crisanto  Riojas  Jhair Sebastián</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>50</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>27.71</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Natividad  Arroyo  Raul Pepe</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>50</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Salazar  Verdi  Alexandra Lorenz</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>50</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pacheco  Mallaupoma  Nicole Anthonella</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>50</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Flores  Marin  Luis Brenner</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>50</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Leon  Agurto  Valeria Michelle</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>50</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Bazan  Ravina  Anthuane Del Pilar</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>50</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jamanca  Ramirez  Marypaz</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>50</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Luyo  Yupanqui  Arian Alonso</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>50</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tipiana  Casiano  Olga Waleska</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>50</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Canelo  Lazo  Dayhanna Michael</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>50</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Santiago  Tueros  Bianca Gianella Deyanira</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>50</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Llajaruna  Aranda  Alex Efrain</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>50</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>30.66</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Villa  Cabrera  Hilary Zurama</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>50</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Lara  Cruz  Angelina Dayana</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>50</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Blas  Grijalva  Sadith Leydy</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Gonzales  Alcantara  Jahriff Alexander</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>25</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sanchez  Alvarado  Caroline Stefany</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>25</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Arce  Garcia  Darcy Joel</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>25</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Niño De Guzman  Bedregal  Dante</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>25</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>59.69</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Lazaro  Medrano  Mery Anyhelina</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>25</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Melgarejo  Gomez  Juan Jose</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>25</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Silva  Pazos  Shantal Antonella</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>40.35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Gallegos  Shupingahua  Nicole Yashira</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ortiz  Cotrina  Melania</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Yalta  Ladrón De Guevara  Zuleyka Letizia</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>50</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ruiz  Davila  Franco Alessio</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Barbaran  Chinguel  Kate Karoline</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>50</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ticona  Rivera  Maria Alejandra</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>50</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tarazona  Paz  Jose Gabriel</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>50</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Huaracha  Aguilar  Jazmin Angelina</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>50</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>49.05</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Urpeque  Espinoza  Enoc Jared</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>50</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Villon  Sanchez  Lesli Liz</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>50</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Heredia  Reto  Naydelin Carla</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>50</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>56.93</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mejia  Buendia  Valentino Israel</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>50</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Carhuaz  Cantaro  Dayanna Alexandra</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>50</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ayma  Chullo  Sandra</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>50</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Bachani  Rengifo  Mathias Jael</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>50</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>67.29000000000001</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Davila  Perez  Manuel Valentino</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>51.24</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sulca  Almeida  Yasumy Aimar</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>50</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Gonzales  Rosales  Hanss Meyer</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>50</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Purizaca  Bances  Victoria Anahy</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>26.22</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Sacaico  Contreras  Elvis Sebastian</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>50</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Cerda  Palomino  Luz Andrea</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>50</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>47.76</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bellido  Vilchez  Pool Eduardo</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>50</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Alanya  Pumallihua  Daena Isabel</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>50</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Vergaray  Julca  Shirley Brigitte</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>50</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Chafloque  Puicon  Brigith Yamile</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>50</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nuñez  Cubillas  Layeska Haytana</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>50</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Zapata  Pacherrez  Nahomy Briggith</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>50</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Avila  Jimenez  Yhanira Xiomara</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>50</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lino  Echevarría  Xiomara Yoselin</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>50</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Salazar  Vargas  Irving Brayan</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>50</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Ludeña  Salcedo  Gems Aldair</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>50</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Leon  Caro  Alexandra Milagros</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>50</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>48.77</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Gonzales  Curico  Dayra Lizania</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>50</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Rodriguez  Herrada  Jomayra Alexandra</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>50</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>41.34</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Mendoza  Vega  Keyla Garmitha</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>50</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>39.32</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Pablo  Pablo  Camila Andrea</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>50</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Calderón  Espinoza  José David</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>50</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Rojas  Diaz  Christopher Saul Wenceslao</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>50</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>50.18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Quispe  Perez  Lucia Fiorela</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>50</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Santos  Niño  Luis Angel</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>50</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>26.37</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Aguilar  Ccorimanya  Maria Magdalina</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>50</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>43.16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Rosenthal  Delgado  Mario Jeferson</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>50</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>47.29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Villena  Garcia  Audry Alexya</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>50</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>44.12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Ramirez  Valdivia  Solimán Matías</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>50</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sanchez  Rodriguez  Deymer</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>50</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>47.64</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Contreras  Trujillo  Gracia Rebeca</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>50</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Bernaola  Campos  Sebastian Andre</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>50</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Siesquen  Vidaurre  Joel Isac</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>50</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Navarro  Castillo  Josue Uriel</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>50</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Carlos  De La Cruz  Jose Erasmo</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>50</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Vega  Huanca  Franklin Jeremias</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>50</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>72.81</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Saavedra  Vela  Teddy Jesús</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>50</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>45.39</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Bances  Santamaria  Carlos Miguel</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>50</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Vidal  Quito  Adrian Gerardo</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>50</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>71.76000000000001</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Albino  Prado  Piero Anderson</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>50</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Espinoza  Capcha  Arnold Emanuel</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>50</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>29.26</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Salazar  Bustamante  Miguel Angel</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>50</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Loza  Julca  Mayte Milagros</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>50</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>42.41</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Gaspar  Sedano  Hever Saul</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>50</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Zegarra  Quicaño  Giomar Adriano Fernando</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>50</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Vargas  Villaran  Daniel Francisco</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>50</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>50.33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Salinas  Monserrate  Diego Gonzalo</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>50</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Huaman  Teran  Cesar Mauricio</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>50</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>46.27</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Rojas  Silva  Russell Luis Jacek</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>50</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>46.48</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Pasquel  Peralta  Carlos Martin</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>50</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>50.16</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ore  Arango  Roberth William</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>50</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>51.81</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fernandez  Yika  Liliana Pamela</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>50</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>50.79</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Perez  Lozada  José Hernan</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>50</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Machuca  Daviran  Rut Genesis</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>50</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>46.05</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Machuca  Daviran  Esther Marianela</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>50</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Carbajal  Visosa  Erika Belu</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>50</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>44.32</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Cruz  Chilcon  Sebastian Silvestre</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>50</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>43.73</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Iparraguirre  Saldaña  Daniel Guillermo</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>50</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>35.18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Quispe  Ttito  Wilson Estalin</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>50</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Castillo  Villanueva  Lucia Carolina</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>50</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Vela  Loo  Abigail Estefanny</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>50</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Ugarte  Castillo  Kiara Daniela</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>50</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>44.09</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Frisancho  Uceda  Laura Natalia</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>50</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>54.38</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Barreros  Flores  Thalia Francis</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>50</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Trinidad  Leon  Odett Virginia</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>50</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>52.53</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Bardales  Fernandez  Jhuneli Jhulisa</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>50</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Quica  Fernandez  Maria Joaquina</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>50</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>49.14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Tito  Hernandez  Xiomara De Los Angeles</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>50</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>44.09</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mamani  Sanchez  Edwin Joseph</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>50</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>43.13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Revoredo  Aguilar  Steicy Airis Lili Beth</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>50</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Torres  Pomahuacre  Silvia Lía</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>50</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>44.09</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Valle  Medrano  Franz Marcelo</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>50</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Caceres  Alvarado  Sol Elizabeth</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>50</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Castañeda  Ramos  Esperanza Mercedes</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>50</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Rebaza  Calderon  Miguel Alberto</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>50</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Gomez  Quispe  Greysi Analy</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>50</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Urbano  Gamarra  Christopher Bayron</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>50</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Calderon  Lazo  Raul Alexis</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>50</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>38.13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Obregon  Lopez  Fabricio Andre</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>50</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Aguilar  Minaya  Arhon Jhosein</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>50</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Montalva  Mesias  Nicole Aillen</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>50</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Cárdenas  Camargo  Pamela Andrea</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>50</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Carhuayano  Diaz  Anthony Adrian</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>50</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Recharte  Trucios  Franccesca Alessandra</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>50</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Fernandez  Llanos  Jimmy Mauricio</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>50</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Reque  Chafloque  Cristian Antonio</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>50</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>43.69</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Alburqueque  Alderete  Julio Andres Angelo</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>50</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Jimenez  Oseda  Jelen Jasmin</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>50</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>43.63</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guzman  Sulca  Andrew Gabriel</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>50</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Avila  Quiroz  Diego Alessandro</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>50</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>51.71</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Huaman  Sanchez  Luz Daniela</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>50</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>43.29</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Sheen  Moreno  Mateo Antonio</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>50</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Ordoñez  Vicente  Danilo Diego</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>50</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Yarleque  Martinez  Lorena</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>50</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mata  Albines  Zoila Alondra</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>50</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>51.37</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mendoza  Flores  Yamir Joel</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>50</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ambrocio  Gonzales  Danuska Ayleen</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>50</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Palacios  Rodriguez  Harold Fabrizio</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>50</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>49.19</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Laura  Mandujano  Lidsay Melin</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>50</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>46.57</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Patiño  Sucre  Alexander</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>50</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Casavilca  Diaz  Yulissa Marie</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>50</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Factor  Fernandez  Fiorella Andrea</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>50</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Laurente  Vilcas  Sandra Gabriela</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>50</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Desaprobado</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>41.16</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Espiell  Diaz  Fatima Andrea</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>50</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>50.64</v>
       </c>
     </row>
   </sheetData>
